--- a/Lista de exercícios - Manzano/Atividades do capítulo 3/GE & GR do capítulo/Planilha de grau Nº3.xlsx
+++ b/Lista de exercícios - Manzano/Atividades do capítulo 3/GE & GR do capítulo/Planilha de grau Nº3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justd\Documents\MeuProjetos\Programas-em-C\Manzano\Atividades-Capitulo-3\Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justd\Documents\MeuProjetos\Códigos em Linguagem C\Lista de exercícios - Manzano\Atividades do capítulo 3\GE &amp; GR do capítulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0D3358-BD90-490E-B1C9-1197ECA114E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6045CECC-FA95-4661-93BC-39754DCD389E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C5CAC48-2255-42A7-8E2C-4290F3FEA30D}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Questões </t>
   </si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>Atividades do capítulo 3</t>
+  </si>
+  <si>
+    <t>Legenda:</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,16 +195,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECCB3BD-1EE7-4C26-8685-D4AD03A53AD8}">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +545,13 @@
     <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -577,6 +596,9 @@
         <v>1</v>
       </c>
       <c r="D5" s="4"/>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -864,6 +886,9 @@
       <c r="D28" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Lista de exercícios - Manzano/Atividades do capítulo 3/GE & GR do capítulo/Planilha de grau Nº3.xlsx
+++ b/Lista de exercícios - Manzano/Atividades do capítulo 3/GE & GR do capítulo/Planilha de grau Nº3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justd\Documents\MeuProjetos\Códigos em Linguagem C\Lista de exercícios - Manzano\Atividades do capítulo 3\GE &amp; GR do capítulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6045CECC-FA95-4661-93BC-39754DCD389E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63382147-52AA-4C3B-8B3E-88A6CB143502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C5CAC48-2255-42A7-8E2C-4290F3FEA30D}"/>
   </bookViews>
@@ -531,363 +531,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECCB3BD-1EE7-4C26-8685-D4AD03A53AD8}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="C1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="3:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="E9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
+      <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3">
+      <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="C28" s="3">
+      <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Lista de exercícios - Manzano/Atividades do capítulo 3/GE & GR do capítulo/Planilha de grau Nº3.xlsx
+++ b/Lista de exercícios - Manzano/Atividades do capítulo 3/GE & GR do capítulo/Planilha de grau Nº3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justd\Documents\MeuProjetos\Códigos em Linguagem C\Lista de exercícios - Manzano\Atividades do capítulo 3\GE &amp; GR do capítulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63382147-52AA-4C3B-8B3E-88A6CB143502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99017215-4033-4C19-8F3D-E0F40869A65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C5CAC48-2255-42A7-8E2C-4290F3FEA30D}"/>
   </bookViews>
@@ -208,14 +208,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,363 +532,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECCB3BD-1EE7-4C26-8685-D4AD03A53AD8}">
-  <dimension ref="C1:G28"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C4" s="1" t="s">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C5" s="1" t="s">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C6" s="1" t="s">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2" t="s">
+    </row>
+    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2" t="s">
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="F28" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="3:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="3:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="C28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
